--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python-selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python-selenium\nopcommerceApp\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
